--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,7 +88,13 @@
     <t>Cxcr3</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +549,40 @@
         <v>0.379251</v>
       </c>
       <c r="I2">
-        <v>0.5842846710605375</v>
+        <v>0.733230478333749</v>
       </c>
       <c r="J2">
-        <v>0.6782743529807329</v>
+        <v>0.8047954435010685</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N2">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O2">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P2">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q2">
-        <v>0.09060293748300001</v>
+        <v>0.045281178813</v>
       </c>
       <c r="R2">
-        <v>0.815426437347</v>
+        <v>0.271687072878</v>
       </c>
       <c r="S2">
-        <v>0.1329953319088708</v>
+        <v>0.03884542618563846</v>
       </c>
       <c r="T2">
-        <v>0.1543893365133325</v>
+        <v>0.02893553901343893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,45 +611,45 @@
         <v>0.379251</v>
       </c>
       <c r="I3">
-        <v>0.5842846710605375</v>
+        <v>0.733230478333749</v>
       </c>
       <c r="J3">
-        <v>0.6782743529807329</v>
+        <v>0.8047954435010685</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N3">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O3">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P3">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q3">
-        <v>0.307440413096</v>
+        <v>0.07267245587100001</v>
       </c>
       <c r="R3">
-        <v>2.766963717864</v>
+        <v>0.6540521028389999</v>
       </c>
       <c r="S3">
-        <v>0.4512893391516667</v>
+        <v>0.062343618127175</v>
       </c>
       <c r="T3">
-        <v>0.5238850164674004</v>
+        <v>0.06965863314011266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,60 +658,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.126417</v>
+      </c>
+      <c r="H4">
+        <v>0.379251</v>
+      </c>
+      <c r="I4">
+        <v>0.733230478333749</v>
+      </c>
+      <c r="J4">
+        <v>0.8047954435010685</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0.089945</v>
-      </c>
-      <c r="H4">
-        <v>0.17989</v>
-      </c>
-      <c r="I4">
-        <v>0.4157153289394626</v>
-      </c>
-      <c r="J4">
-        <v>0.321725647019267</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N4">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O4">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P4">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q4">
-        <v>0.064463491555</v>
+        <v>0.706793528073</v>
       </c>
       <c r="R4">
-        <v>0.38678094933</v>
+        <v>6.361141752657</v>
       </c>
       <c r="S4">
-        <v>0.09462544696159043</v>
+        <v>0.6063379210296601</v>
       </c>
       <c r="T4">
-        <v>0.07323144235712861</v>
+        <v>0.677481866929586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.089945</v>
+        <v>0.126417</v>
       </c>
       <c r="H5">
-        <v>0.17989</v>
+        <v>0.379251</v>
       </c>
       <c r="I5">
-        <v>0.4157153289394626</v>
+        <v>0.733230478333749</v>
       </c>
       <c r="J5">
-        <v>0.321725647019267</v>
+        <v>0.8047954435010685</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +747,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N5">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O5">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P5">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q5">
-        <v>0.2187421624933333</v>
+        <v>0.029961966753</v>
       </c>
       <c r="R5">
-        <v>1.31245297496</v>
+        <v>0.269657700777</v>
       </c>
       <c r="S5">
-        <v>0.3210898819778721</v>
+        <v>0.02570351299127552</v>
       </c>
       <c r="T5">
-        <v>0.2484942046621384</v>
+        <v>0.02871940441793082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.045994</v>
+      </c>
+      <c r="H6">
+        <v>0.091988</v>
+      </c>
+      <c r="I6">
+        <v>0.266769521666251</v>
+      </c>
+      <c r="J6">
+        <v>0.1952045564989315</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.358189</v>
+      </c>
+      <c r="N6">
+        <v>0.716378</v>
+      </c>
+      <c r="O6">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P6">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q6">
+        <v>0.016474544866</v>
+      </c>
+      <c r="R6">
+        <v>0.06589817946399999</v>
+      </c>
+      <c r="S6">
+        <v>0.01413304011313554</v>
+      </c>
+      <c r="T6">
+        <v>0.007018366102576448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.045994</v>
+      </c>
+      <c r="H7">
+        <v>0.091988</v>
+      </c>
+      <c r="I7">
+        <v>0.266769521666251</v>
+      </c>
+      <c r="J7">
+        <v>0.1952045564989315</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.574863</v>
+      </c>
+      <c r="N7">
+        <v>1.724589</v>
+      </c>
+      <c r="O7">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P7">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q7">
+        <v>0.026440248822</v>
+      </c>
+      <c r="R7">
+        <v>0.158641492932</v>
+      </c>
+      <c r="S7">
+        <v>0.02268233206088807</v>
+      </c>
+      <c r="T7">
+        <v>0.01689582452068072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.045994</v>
+      </c>
+      <c r="H8">
+        <v>0.091988</v>
+      </c>
+      <c r="I8">
+        <v>0.266769521666251</v>
+      </c>
+      <c r="J8">
+        <v>0.1952045564989315</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.590969</v>
+      </c>
+      <c r="N8">
+        <v>16.772907</v>
+      </c>
+      <c r="O8">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P8">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q8">
+        <v>0.257151028186</v>
+      </c>
+      <c r="R8">
+        <v>1.542906169116</v>
+      </c>
+      <c r="S8">
+        <v>0.220602500769977</v>
+      </c>
+      <c r="T8">
+        <v>0.1643244236010419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.045994</v>
+      </c>
+      <c r="H9">
+        <v>0.091988</v>
+      </c>
+      <c r="I9">
+        <v>0.266769521666251</v>
+      </c>
+      <c r="J9">
+        <v>0.1952045564989315</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.237009</v>
+      </c>
+      <c r="N9">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P9">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q9">
+        <v>0.010900991946</v>
+      </c>
+      <c r="R9">
+        <v>0.06540595167600001</v>
+      </c>
+      <c r="S9">
+        <v>0.00935164872225038</v>
+      </c>
+      <c r="T9">
+        <v>0.006965942274632421</v>
       </c>
     </row>
   </sheetData>
